--- a/Code/Results/Cases/Case_1_129/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_129/res_bus/vm_pu.xlsx
@@ -418,28 +418,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9461692172995133</v>
+        <v>1.006795699771643</v>
       </c>
       <c r="E2">
-        <v>0.9596434903884671</v>
+        <v>1.009532559647175</v>
       </c>
       <c r="F2">
-        <v>0.9199234399015862</v>
+        <v>1.004972426319249</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9700885110904762</v>
+        <v>1.012071080893318</v>
       </c>
       <c r="L2">
-        <v>0.9716952357474193</v>
+        <v>1.012405490914704</v>
       </c>
       <c r="M2">
-        <v>0.9326238585607511</v>
+        <v>1.007859237321635</v>
       </c>
       <c r="N2">
-        <v>0.9714661480469324</v>
+        <v>1.013508337914362</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -447,28 +447,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9534053335718411</v>
+        <v>1.008197251359901</v>
       </c>
       <c r="E3">
-        <v>0.9655868422326273</v>
+        <v>1.010735825058346</v>
       </c>
       <c r="F3">
-        <v>0.9303113987982861</v>
+        <v>1.007032313929777</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9752521672617575</v>
+        <v>1.013101395776095</v>
       </c>
       <c r="L3">
-        <v>0.9766798421741615</v>
+        <v>1.01341151132103</v>
       </c>
       <c r="M3">
-        <v>0.9419210953951725</v>
+        <v>1.009718434850895</v>
       </c>
       <c r="N3">
-        <v>0.9766371372022564</v>
+        <v>1.014540115962452</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -476,28 +476,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9579330712616053</v>
+        <v>1.009102639152691</v>
       </c>
       <c r="E4">
-        <v>0.969313087665802</v>
+        <v>1.011513358573906</v>
       </c>
       <c r="F4">
-        <v>0.9367889765649676</v>
+        <v>1.008363069200797</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9784777002682257</v>
+        <v>1.013766239260105</v>
       </c>
       <c r="L4">
-        <v>0.9797965515889008</v>
+        <v>1.014060866618907</v>
       </c>
       <c r="M4">
-        <v>0.9477153266852789</v>
+        <v>1.010918994503387</v>
       </c>
       <c r="N4">
-        <v>0.9798672508355677</v>
+        <v>1.015205903600467</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -505,28 +505,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9598019338788211</v>
+        <v>1.009482911626778</v>
       </c>
       <c r="E5">
-        <v>0.9708527944323516</v>
+        <v>1.011839986557137</v>
       </c>
       <c r="F5">
-        <v>0.9394580827578115</v>
+        <v>1.008922028095641</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9798077482067225</v>
+        <v>1.014045305955707</v>
       </c>
       <c r="L5">
-        <v>0.9810824118589894</v>
+        <v>1.014333476974628</v>
       </c>
       <c r="M5">
-        <v>0.9501020148839687</v>
+        <v>1.011423136912127</v>
       </c>
       <c r="N5">
-        <v>0.9811991875946957</v>
+        <v>1.015485366602786</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -534,28 +534,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.960113760331342</v>
+        <v>1.009546740631774</v>
       </c>
       <c r="E6">
-        <v>0.9711097950342265</v>
+        <v>1.011894814532448</v>
       </c>
       <c r="F6">
-        <v>0.939903184989652</v>
+        <v>1.009015851539715</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.980029593498544</v>
+        <v>1.014092137257115</v>
       </c>
       <c r="L6">
-        <v>0.9812969261389406</v>
+        <v>1.014379227428651</v>
       </c>
       <c r="M6">
-        <v>0.9504999693220948</v>
+        <v>1.011507751549646</v>
       </c>
       <c r="N6">
-        <v>0.9814213479322775</v>
+        <v>1.015532264410014</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -563,28 +563,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9579581760609404</v>
+        <v>1.009107721746463</v>
       </c>
       <c r="E7">
-        <v>0.9693337643880419</v>
+        <v>1.011517723955895</v>
       </c>
       <c r="F7">
-        <v>0.9368248483239289</v>
+        <v>1.008370539941099</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9784955723055579</v>
+        <v>1.013769969858014</v>
       </c>
       <c r="L7">
-        <v>0.9798138272026887</v>
+        <v>1.014064510731977</v>
       </c>
       <c r="M7">
-        <v>0.9477474062859135</v>
+        <v>1.010925733108616</v>
       </c>
       <c r="N7">
-        <v>0.9798851482532428</v>
+        <v>1.015209639496253</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -592,28 +592,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9486482107890782</v>
+        <v>1.007269678681445</v>
       </c>
       <c r="E8">
-        <v>0.9616779624447932</v>
+        <v>1.00993943221331</v>
       </c>
       <c r="F8">
-        <v>0.9234874470085557</v>
+        <v>1.005669027589002</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9718586509409679</v>
+        <v>1.012419665540274</v>
       </c>
       <c r="L8">
-        <v>0.9734033304040421</v>
+        <v>1.012745816713894</v>
       </c>
       <c r="M8">
-        <v>0.9358142820228361</v>
+        <v>1.008488082817076</v>
       </c>
       <c r="N8">
-        <v>0.9732388016990495</v>
+        <v>1.0138574175915</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -621,28 +621,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9309368692297685</v>
+        <v>1.004018848159921</v>
       </c>
       <c r="E9">
-        <v>0.9471799915878469</v>
+        <v>1.007149868128996</v>
       </c>
       <c r="F9">
-        <v>0.8978875194172765</v>
+        <v>1.000891439981142</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9591884982792507</v>
+        <v>1.010025865257892</v>
       </c>
       <c r="L9">
-        <v>0.9611924046096466</v>
+        <v>1.010409523095615</v>
       </c>
       <c r="M9">
-        <v>0.9128873646907242</v>
+        <v>1.00417296713567</v>
       </c>
       <c r="N9">
-        <v>0.9605506559672656</v>
+        <v>1.011460217838144</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -650,28 +650,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.918050414991423</v>
+        <v>1.001843021329064</v>
       </c>
       <c r="E10">
-        <v>0.9366864019342601</v>
+        <v>1.005284085024044</v>
       </c>
       <c r="F10">
-        <v>0.8790291643647622</v>
+        <v>0.9976936178203026</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9499400998670392</v>
+        <v>1.008419891959954</v>
       </c>
       <c r="L10">
-        <v>0.9523013196123891</v>
+        <v>1.008843141418668</v>
       </c>
       <c r="M10">
-        <v>0.895989914765401</v>
+        <v>1.001281905842057</v>
       </c>
       <c r="N10">
-        <v>0.9512891237685028</v>
+        <v>1.009851963873915</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -679,28 +679,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9121586469191233</v>
+        <v>1.000898696951886</v>
       </c>
       <c r="E11">
-        <v>0.9319041540837815</v>
+        <v>1.004474645911795</v>
       </c>
       <c r="F11">
-        <v>0.8703290584636443</v>
+        <v>0.9963056270408931</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9457044986885031</v>
+        <v>1.00772199414136</v>
       </c>
       <c r="L11">
-        <v>0.9482356285770229</v>
+        <v>1.008162693502324</v>
       </c>
       <c r="M11">
-        <v>0.8881946249188321</v>
+        <v>1.000026403695263</v>
       </c>
       <c r="N11">
-        <v>0.9470475075504632</v>
+        <v>1.009153074960369</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -708,28 +708,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9099174908576831</v>
+        <v>1.000547594827383</v>
       </c>
       <c r="E12">
-        <v>0.9300876092171035</v>
+        <v>1.004173744240184</v>
       </c>
       <c r="F12">
-        <v>0.8670054707059699</v>
+        <v>0.9957895443653951</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9440922267913803</v>
+        <v>1.007462379703838</v>
       </c>
       <c r="L12">
-        <v>0.94668907809754</v>
+        <v>1.007909607544663</v>
       </c>
       <c r="M12">
-        <v>0.885216948172559</v>
+        <v>0.9995594842477437</v>
       </c>
       <c r="N12">
-        <v>0.945432946042316</v>
+        <v>1.008893091840568</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -737,28 +737,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9104007166052405</v>
+        <v>1.000622922897104</v>
       </c>
       <c r="E13">
-        <v>0.9304791629497329</v>
+        <v>1.004238299660312</v>
       </c>
       <c r="F13">
-        <v>0.8677227690007265</v>
+        <v>0.9959002698105659</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9444399062232226</v>
+        <v>1.007518085399739</v>
       </c>
       <c r="L13">
-        <v>0.9470225359879155</v>
+        <v>1.00796391072889</v>
       </c>
       <c r="M13">
-        <v>0.8858595760307716</v>
+        <v>0.9996596661921247</v>
       </c>
       <c r="N13">
-        <v>0.945781119218831</v>
+        <v>1.008948876644947</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -766,28 +766,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.911974504824723</v>
+        <v>1.000869681699599</v>
       </c>
       <c r="E14">
-        <v>0.9317548463490769</v>
+        <v>1.004449778228142</v>
       </c>
       <c r="F14">
-        <v>0.8700562825860753</v>
+        <v>0.9962629782525636</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9455720506529111</v>
+        <v>1.007700542215689</v>
       </c>
       <c r="L14">
-        <v>0.9481085577312965</v>
+        <v>1.008141780263488</v>
       </c>
       <c r="M14">
-        <v>0.8879502322287854</v>
+        <v>0.9999878197400793</v>
       </c>
       <c r="N14">
-        <v>0.9469148714234682</v>
+        <v>1.009131592570504</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -795,28 +795,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9129369923917733</v>
+        <v>1.001021672823927</v>
       </c>
       <c r="E15">
-        <v>0.9325353645304447</v>
+        <v>1.004580045112463</v>
       </c>
       <c r="F15">
-        <v>0.8714814569302156</v>
+        <v>0.9964863851390769</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9462642950277591</v>
+        <v>1.007812908730181</v>
       </c>
       <c r="L15">
-        <v>0.9487727410836883</v>
+        <v>1.00825132662824</v>
       </c>
       <c r="M15">
-        <v>0.8892271245541844</v>
+        <v>1.000189929797714</v>
       </c>
       <c r="N15">
-        <v>0.9476080988647302</v>
+        <v>1.009244118658334</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -824,28 +824,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9184343875086273</v>
+        <v>1.001905646230184</v>
       </c>
       <c r="E16">
-        <v>0.936998404105546</v>
+        <v>1.005337771633596</v>
       </c>
       <c r="F16">
-        <v>0.8795943590734797</v>
+        <v>0.9977856624107103</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9502159889032061</v>
+        <v>1.008466155736214</v>
       </c>
       <c r="L16">
-        <v>0.9525662787410079</v>
+        <v>1.008888253624534</v>
       </c>
       <c r="M16">
-        <v>0.8964963505232736</v>
+        <v>1.00136515060923</v>
       </c>
       <c r="N16">
-        <v>0.9515654045987461</v>
+        <v>1.009898293350044</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -853,28 +853,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9217954674741039</v>
+        <v>1.002459548863428</v>
       </c>
       <c r="E17">
-        <v>0.9397312589629028</v>
+        <v>1.005812654693122</v>
       </c>
       <c r="F17">
-        <v>0.884532775814669</v>
+        <v>0.9985997613745494</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9526301609452782</v>
+        <v>1.008875244892429</v>
       </c>
       <c r="L17">
-        <v>0.9548855213972856</v>
+        <v>1.00928718825863</v>
       </c>
       <c r="M17">
-        <v>0.9009213993546529</v>
+        <v>1.00210134256527</v>
       </c>
       <c r="N17">
-        <v>0.953983005042027</v>
+        <v>1.010307963459785</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -882,28 +882,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.923726285211287</v>
+        <v>1.002782421593639</v>
       </c>
       <c r="E18">
-        <v>0.9413026136328086</v>
+        <v>1.006089497654568</v>
       </c>
       <c r="F18">
-        <v>0.887362621440524</v>
+        <v>0.9990742934944384</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9540163470520783</v>
+        <v>1.009113618959026</v>
       </c>
       <c r="L18">
-        <v>0.9562177772780682</v>
+        <v>1.009519668882094</v>
       </c>
       <c r="M18">
-        <v>0.9034570705592896</v>
+        <v>1.002530399804981</v>
       </c>
       <c r="N18">
-        <v>0.955371159692097</v>
+        <v>1.010546676044897</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -911,28 +911,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.924379776607664</v>
+        <v>1.002892477678187</v>
       </c>
       <c r="E19">
-        <v>0.941834679573105</v>
+        <v>1.00618386904272</v>
       </c>
       <c r="F19">
-        <v>0.8883192523502302</v>
+        <v>0.999236043444976</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.954485393326105</v>
+        <v>1.009194857778418</v>
       </c>
       <c r="L19">
-        <v>0.9566686701896914</v>
+        <v>1.009598903173332</v>
       </c>
       <c r="M19">
-        <v>0.9043142495412277</v>
+        <v>1.002676638324288</v>
       </c>
       <c r="N19">
-        <v>0.9558408720656332</v>
+        <v>1.010628030232731</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -940,28 +940,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9214379603721131</v>
+        <v>1.002400142081356</v>
       </c>
       <c r="E20">
-        <v>0.9394404238332149</v>
+        <v>1.005761719632777</v>
       </c>
       <c r="F20">
-        <v>0.8840082463319051</v>
+        <v>0.9985124493247256</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9523734429165456</v>
+        <v>1.008831378456744</v>
       </c>
       <c r="L20">
-        <v>0.9546388372458456</v>
+        <v>1.009244408248378</v>
       </c>
       <c r="M20">
-        <v>0.9004513954069258</v>
+        <v>1.002022392601343</v>
       </c>
       <c r="N20">
-        <v>0.9537259224442476</v>
+        <v>1.010264034728729</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -969,28 +969,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9115125703453314</v>
+        <v>1.000797026801522</v>
       </c>
       <c r="E21">
-        <v>0.9313803385320628</v>
+        <v>1.004387509750593</v>
       </c>
       <c r="F21">
-        <v>0.8693717665434543</v>
+        <v>0.996156184230833</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9452397768636936</v>
+        <v>1.007646823902335</v>
       </c>
       <c r="L21">
-        <v>0.9477897909268379</v>
+        <v>1.00808941149181</v>
       </c>
       <c r="M21">
-        <v>0.8873369472075464</v>
+        <v>0.9998912026063485</v>
       </c>
       <c r="N21">
-        <v>0.9465821257673577</v>
+        <v>1.009077797970982</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -998,28 +998,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9049634739858827</v>
+        <v>0.9997871235086685</v>
       </c>
       <c r="E22">
-        <v>0.9260772130345153</v>
+        <v>1.003522097095155</v>
       </c>
       <c r="F22">
-        <v>0.8596292967620416</v>
+        <v>0.9946716801406039</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9405262619319525</v>
+        <v>1.006899820848372</v>
       </c>
       <c r="L22">
-        <v>0.9432705401068513</v>
+        <v>1.007361263806506</v>
       </c>
       <c r="M22">
-        <v>0.878609246531574</v>
+        <v>0.9985479300973373</v>
       </c>
       <c r="N22">
-        <v>0.9418619171037658</v>
+        <v>1.008329734087001</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1027,28 +1027,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9084667798043548</v>
+        <v>1.000322681920053</v>
       </c>
       <c r="E23">
-        <v>0.9289125059676511</v>
+        <v>1.003981003448065</v>
       </c>
       <c r="F23">
-        <v>0.8648497409394207</v>
+        <v>0.995458938625381</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9430482803299352</v>
+        <v>1.007296035183665</v>
       </c>
       <c r="L23">
-        <v>0.9456879957669948</v>
+        <v>1.007747456589261</v>
       </c>
       <c r="M23">
-        <v>0.8832856871338199</v>
+        <v>0.9992603450241444</v>
       </c>
       <c r="N23">
-        <v>0.9443875170571533</v>
+        <v>1.008726511092096</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1056,28 +1056,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9215995936188752</v>
+        <v>1.002426986095815</v>
       </c>
       <c r="E24">
-        <v>0.9395719094540596</v>
+        <v>1.005784735452404</v>
       </c>
       <c r="F24">
-        <v>0.8842454142872451</v>
+        <v>0.9985519028639321</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9524895102897658</v>
+        <v>1.008851200554655</v>
       </c>
       <c r="L24">
-        <v>0.9547503663144395</v>
+        <v>1.009263739346226</v>
       </c>
       <c r="M24">
-        <v>0.9006639094578028</v>
+        <v>1.002058067776039</v>
       </c>
       <c r="N24">
-        <v>0.9538421546464509</v>
+        <v>1.010283884976293</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1085,28 +1085,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9356892935884333</v>
+        <v>1.004860741150578</v>
       </c>
       <c r="E25">
-        <v>0.9510616292313353</v>
+        <v>1.007872076959016</v>
       </c>
       <c r="F25">
-        <v>0.9047896889381492</v>
+        <v>1.002128720824314</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9625932758949398</v>
+        <v>1.010646469523226</v>
       </c>
       <c r="L25">
-        <v>0.9644703336148369</v>
+        <v>1.011015042468879</v>
       </c>
       <c r="M25">
-        <v>0.9190707937675608</v>
+        <v>1.005290970498298</v>
       </c>
       <c r="N25">
-        <v>0.9639602687577025</v>
+        <v>1.012081703432719</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_129/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_129/res_bus/vm_pu.xlsx
@@ -418,28 +418,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.006795699771643</v>
+        <v>0.9461692172995129</v>
       </c>
       <c r="E2">
-        <v>1.009532559647175</v>
+        <v>0.9596434903884663</v>
       </c>
       <c r="F2">
-        <v>1.004972426319249</v>
+        <v>0.9199234399015853</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.012071080893318</v>
+        <v>0.9700885110904757</v>
       </c>
       <c r="L2">
-        <v>1.012405490914704</v>
+        <v>0.9716952357474186</v>
       </c>
       <c r="M2">
-        <v>1.007859237321635</v>
+        <v>0.9326238585607505</v>
       </c>
       <c r="N2">
-        <v>1.013508337914362</v>
+        <v>0.9714661480469319</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -447,28 +447,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.008197251359901</v>
+        <v>0.9534053335718409</v>
       </c>
       <c r="E3">
-        <v>1.010735825058346</v>
+        <v>0.9655868422326271</v>
       </c>
       <c r="F3">
-        <v>1.007032313929777</v>
+        <v>0.9303113987982857</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.013101395776095</v>
+        <v>0.9752521672617573</v>
       </c>
       <c r="L3">
-        <v>1.01341151132103</v>
+        <v>0.9766798421741613</v>
       </c>
       <c r="M3">
-        <v>1.009718434850895</v>
+        <v>0.9419210953951721</v>
       </c>
       <c r="N3">
-        <v>1.014540115962452</v>
+        <v>0.9766371372022561</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -476,28 +476,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.009102639152691</v>
+        <v>0.9579330712616049</v>
       </c>
       <c r="E4">
-        <v>1.011513358573906</v>
+        <v>0.9693130876658019</v>
       </c>
       <c r="F4">
-        <v>1.008363069200797</v>
+        <v>0.9367889765649677</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.013766239260105</v>
+        <v>0.9784777002682256</v>
       </c>
       <c r="L4">
-        <v>1.014060866618907</v>
+        <v>0.9797965515889006</v>
       </c>
       <c r="M4">
-        <v>1.010918994503387</v>
+        <v>0.9477153266852789</v>
       </c>
       <c r="N4">
-        <v>1.015205903600467</v>
+        <v>0.9798672508355674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -505,28 +505,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.009482911626778</v>
+        <v>0.9598019338788212</v>
       </c>
       <c r="E5">
-        <v>1.011839986557137</v>
+        <v>0.9708527944323516</v>
       </c>
       <c r="F5">
-        <v>1.008922028095641</v>
+        <v>0.939458082757811</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.014045305955707</v>
+        <v>0.9798077482067226</v>
       </c>
       <c r="L5">
-        <v>1.014333476974628</v>
+        <v>0.9810824118589895</v>
       </c>
       <c r="M5">
-        <v>1.011423136912127</v>
+        <v>0.9501020148839683</v>
       </c>
       <c r="N5">
-        <v>1.015485366602786</v>
+        <v>0.9811991875946959</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -534,28 +534,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.009546740631774</v>
+        <v>0.9601137603313427</v>
       </c>
       <c r="E6">
-        <v>1.011894814532448</v>
+        <v>0.9711097950342265</v>
       </c>
       <c r="F6">
-        <v>1.009015851539715</v>
+        <v>0.9399031849896525</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.014092137257115</v>
+        <v>0.9800295934985443</v>
       </c>
       <c r="L6">
-        <v>1.014379227428651</v>
+        <v>0.9812969261389407</v>
       </c>
       <c r="M6">
-        <v>1.011507751549646</v>
+        <v>0.9504999693220954</v>
       </c>
       <c r="N6">
-        <v>1.015532264410014</v>
+        <v>0.9814213479322776</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -563,28 +563,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.009107721746463</v>
+        <v>0.9579581760609406</v>
       </c>
       <c r="E7">
-        <v>1.011517723955895</v>
+        <v>0.9693337643880421</v>
       </c>
       <c r="F7">
-        <v>1.008370539941099</v>
+        <v>0.9368248483239291</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.013769969858014</v>
+        <v>0.9784955723055581</v>
       </c>
       <c r="L7">
-        <v>1.014064510731977</v>
+        <v>0.9798138272026889</v>
       </c>
       <c r="M7">
-        <v>1.010925733108616</v>
+        <v>0.9477474062859138</v>
       </c>
       <c r="N7">
-        <v>1.015209639496253</v>
+        <v>0.9798851482532427</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -592,28 +592,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.007269678681445</v>
+        <v>0.9486482107890778</v>
       </c>
       <c r="E8">
-        <v>1.00993943221331</v>
+        <v>0.9616779624447923</v>
       </c>
       <c r="F8">
-        <v>1.005669027589002</v>
+        <v>0.9234874470085552</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.012419665540274</v>
+        <v>0.9718586509409675</v>
       </c>
       <c r="L8">
-        <v>1.012745816713894</v>
+        <v>0.9734033304040413</v>
       </c>
       <c r="M8">
-        <v>1.008488082817076</v>
+        <v>0.9358142820228358</v>
       </c>
       <c r="N8">
-        <v>1.0138574175915</v>
+        <v>0.9732388016990492</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -621,28 +621,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.004018848159921</v>
+        <v>0.9309368692297683</v>
       </c>
       <c r="E9">
-        <v>1.007149868128996</v>
+        <v>0.9471799915878465</v>
       </c>
       <c r="F9">
-        <v>1.000891439981142</v>
+        <v>0.8978875194172762</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.010025865257892</v>
+        <v>0.9591884982792505</v>
       </c>
       <c r="L9">
-        <v>1.010409523095615</v>
+        <v>0.9611924046096463</v>
       </c>
       <c r="M9">
-        <v>1.00417296713567</v>
+        <v>0.9128873646907237</v>
       </c>
       <c r="N9">
-        <v>1.011460217838144</v>
+        <v>0.9605506559672655</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -650,28 +650,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001843021329064</v>
+        <v>0.9180504149914237</v>
       </c>
       <c r="E10">
-        <v>1.005284085024044</v>
+        <v>0.9366864019342607</v>
       </c>
       <c r="F10">
-        <v>0.9976936178203026</v>
+        <v>0.8790291643647631</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.008419891959954</v>
+        <v>0.9499400998670399</v>
       </c>
       <c r="L10">
-        <v>1.008843141418668</v>
+        <v>0.9523013196123896</v>
       </c>
       <c r="M10">
-        <v>1.001281905842057</v>
+        <v>0.8959899147654018</v>
       </c>
       <c r="N10">
-        <v>1.009851963873915</v>
+        <v>0.9512891237685035</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -679,28 +679,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000898696951886</v>
+        <v>0.9121586469191234</v>
       </c>
       <c r="E11">
-        <v>1.004474645911795</v>
+        <v>0.9319041540837815</v>
       </c>
       <c r="F11">
-        <v>0.9963056270408931</v>
+        <v>0.8703290584636444</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.00772199414136</v>
+        <v>0.9457044986885033</v>
       </c>
       <c r="L11">
-        <v>1.008162693502324</v>
+        <v>0.9482356285770227</v>
       </c>
       <c r="M11">
-        <v>1.000026403695263</v>
+        <v>0.8881946249188322</v>
       </c>
       <c r="N11">
-        <v>1.009153074960369</v>
+        <v>0.9470475075504633</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -708,28 +708,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000547594827383</v>
+        <v>0.9099174908576831</v>
       </c>
       <c r="E12">
-        <v>1.004173744240184</v>
+        <v>0.9300876092171033</v>
       </c>
       <c r="F12">
-        <v>0.9957895443653951</v>
+        <v>0.8670054707059701</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.007462379703838</v>
+        <v>0.9440922267913802</v>
       </c>
       <c r="L12">
-        <v>1.007909607544663</v>
+        <v>0.9466890780975398</v>
       </c>
       <c r="M12">
-        <v>0.9995594842477437</v>
+        <v>0.8852169481725592</v>
       </c>
       <c r="N12">
-        <v>1.008893091840568</v>
+        <v>0.9454329460423159</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -737,28 +737,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000622922897104</v>
+        <v>0.9104007166052402</v>
       </c>
       <c r="E13">
-        <v>1.004238299660312</v>
+        <v>0.9304791629497327</v>
       </c>
       <c r="F13">
-        <v>0.9959002698105659</v>
+        <v>0.8677227690007263</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.007518085399739</v>
+        <v>0.9444399062232224</v>
       </c>
       <c r="L13">
-        <v>1.00796391072889</v>
+        <v>0.9470225359879154</v>
       </c>
       <c r="M13">
-        <v>0.9996596661921247</v>
+        <v>0.8858595760307714</v>
       </c>
       <c r="N13">
-        <v>1.008948876644947</v>
+        <v>0.9457811192188308</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -766,28 +766,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000869681699599</v>
+        <v>0.9119745048247226</v>
       </c>
       <c r="E14">
-        <v>1.004449778228142</v>
+        <v>0.9317548463490766</v>
       </c>
       <c r="F14">
-        <v>0.9962629782525636</v>
+        <v>0.8700562825860749</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.007700542215689</v>
+        <v>0.9455720506529107</v>
       </c>
       <c r="L14">
-        <v>1.008141780263488</v>
+        <v>0.9481085577312959</v>
       </c>
       <c r="M14">
-        <v>0.9999878197400793</v>
+        <v>0.8879502322287849</v>
       </c>
       <c r="N14">
-        <v>1.009131592570504</v>
+        <v>0.946914871423468</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -795,28 +795,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.001021672823927</v>
+        <v>0.9129369923917725</v>
       </c>
       <c r="E15">
-        <v>1.004580045112463</v>
+        <v>0.9325353645304439</v>
       </c>
       <c r="F15">
-        <v>0.9964863851390769</v>
+        <v>0.8714814569302148</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.007812908730181</v>
+        <v>0.9462642950277583</v>
       </c>
       <c r="L15">
-        <v>1.00825132662824</v>
+        <v>0.9487727410836875</v>
       </c>
       <c r="M15">
-        <v>1.000189929797714</v>
+        <v>0.8892271245541835</v>
       </c>
       <c r="N15">
-        <v>1.009244118658334</v>
+        <v>0.9476080988647293</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -824,28 +824,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.001905646230184</v>
+        <v>0.9184343875086275</v>
       </c>
       <c r="E16">
-        <v>1.005337771633596</v>
+        <v>0.9369984041055459</v>
       </c>
       <c r="F16">
-        <v>0.9977856624107103</v>
+        <v>0.8795943590734797</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.008466155736214</v>
+        <v>0.9502159889032061</v>
       </c>
       <c r="L16">
-        <v>1.008888253624534</v>
+        <v>0.9525662787410079</v>
       </c>
       <c r="M16">
-        <v>1.00136515060923</v>
+        <v>0.8964963505232736</v>
       </c>
       <c r="N16">
-        <v>1.009898293350044</v>
+        <v>0.9515654045987461</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -853,28 +853,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.002459548863428</v>
+        <v>0.9217954674741035</v>
       </c>
       <c r="E17">
-        <v>1.005812654693122</v>
+        <v>0.939731258962902</v>
       </c>
       <c r="F17">
-        <v>0.9985997613745494</v>
+        <v>0.8845327758146692</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.008875244892429</v>
+        <v>0.9526301609452779</v>
       </c>
       <c r="L17">
-        <v>1.00928718825863</v>
+        <v>0.9548855213972851</v>
       </c>
       <c r="M17">
-        <v>1.00210134256527</v>
+        <v>0.9009213993546525</v>
       </c>
       <c r="N17">
-        <v>1.010307963459785</v>
+        <v>0.9539830050420268</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -882,28 +882,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.002782421593639</v>
+        <v>0.9237262852112872</v>
       </c>
       <c r="E18">
-        <v>1.006089497654568</v>
+        <v>0.9413026136328089</v>
       </c>
       <c r="F18">
-        <v>0.9990742934944384</v>
+        <v>0.8873626214405246</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.009113618959026</v>
+        <v>0.9540163470520785</v>
       </c>
       <c r="L18">
-        <v>1.009519668882094</v>
+        <v>0.9562177772780686</v>
       </c>
       <c r="M18">
-        <v>1.002530399804981</v>
+        <v>0.9034570705592901</v>
       </c>
       <c r="N18">
-        <v>1.010546676044897</v>
+        <v>0.9553711596920971</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -911,28 +911,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.002892477678187</v>
+        <v>0.9243797766076642</v>
       </c>
       <c r="E19">
-        <v>1.00618386904272</v>
+        <v>0.9418346795731052</v>
       </c>
       <c r="F19">
-        <v>0.999236043444976</v>
+        <v>0.8883192523502305</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.009194857778418</v>
+        <v>0.9544853933261053</v>
       </c>
       <c r="L19">
-        <v>1.009598903173332</v>
+        <v>0.9566686701896916</v>
       </c>
       <c r="M19">
-        <v>1.002676638324288</v>
+        <v>0.9043142495412277</v>
       </c>
       <c r="N19">
-        <v>1.010628030232731</v>
+        <v>0.9558408720656332</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -940,28 +940,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.002400142081356</v>
+        <v>0.921437960372113</v>
       </c>
       <c r="E20">
-        <v>1.005761719632777</v>
+        <v>0.9394404238332147</v>
       </c>
       <c r="F20">
-        <v>0.9985124493247256</v>
+        <v>0.8840082463319048</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.008831378456744</v>
+        <v>0.9523734429165456</v>
       </c>
       <c r="L20">
-        <v>1.009244408248378</v>
+        <v>0.9546388372458454</v>
       </c>
       <c r="M20">
-        <v>1.002022392601343</v>
+        <v>0.9004513954069254</v>
       </c>
       <c r="N20">
-        <v>1.010264034728729</v>
+        <v>0.9537259224442476</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -969,28 +969,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000797026801522</v>
+        <v>0.9115125703453313</v>
       </c>
       <c r="E21">
-        <v>1.004387509750593</v>
+        <v>0.9313803385320625</v>
       </c>
       <c r="F21">
-        <v>0.996156184230833</v>
+        <v>0.8693717665434543</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.007646823902335</v>
+        <v>0.9452397768636933</v>
       </c>
       <c r="L21">
-        <v>1.00808941149181</v>
+        <v>0.9477897909268376</v>
       </c>
       <c r="M21">
-        <v>0.9998912026063485</v>
+        <v>0.8873369472075463</v>
       </c>
       <c r="N21">
-        <v>1.009077797970982</v>
+        <v>0.9465821257673576</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -998,28 +998,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9997871235086685</v>
+        <v>0.9049634739858824</v>
       </c>
       <c r="E22">
-        <v>1.003522097095155</v>
+        <v>0.926077213034515</v>
       </c>
       <c r="F22">
-        <v>0.9946716801406039</v>
+        <v>0.8596292967620413</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.006899820848372</v>
+        <v>0.9405262619319523</v>
       </c>
       <c r="L22">
-        <v>1.007361263806506</v>
+        <v>0.9432705401068511</v>
       </c>
       <c r="M22">
-        <v>0.9985479300973373</v>
+        <v>0.8786092465315735</v>
       </c>
       <c r="N22">
-        <v>1.008329734087001</v>
+        <v>0.9418619171037658</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1027,28 +1027,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.000322681920053</v>
+        <v>0.9084667798043545</v>
       </c>
       <c r="E23">
-        <v>1.003981003448065</v>
+        <v>0.928912505967651</v>
       </c>
       <c r="F23">
-        <v>0.995458938625381</v>
+        <v>0.8648497409394205</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.007296035183665</v>
+        <v>0.943048280329935</v>
       </c>
       <c r="L23">
-        <v>1.007747456589261</v>
+        <v>0.9456879957669945</v>
       </c>
       <c r="M23">
-        <v>0.9992603450241444</v>
+        <v>0.8832856871338197</v>
       </c>
       <c r="N23">
-        <v>1.008726511092096</v>
+        <v>0.9443875170571533</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1056,28 +1056,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.002426986095815</v>
+        <v>0.9215995936188751</v>
       </c>
       <c r="E24">
-        <v>1.005784735452404</v>
+        <v>0.939571909454059</v>
       </c>
       <c r="F24">
-        <v>0.9985519028639321</v>
+        <v>0.8842454142872449</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.008851200554655</v>
+        <v>0.9524895102897657</v>
       </c>
       <c r="L24">
-        <v>1.009263739346226</v>
+        <v>0.9547503663144391</v>
       </c>
       <c r="M24">
-        <v>1.002058067776039</v>
+        <v>0.9006639094578027</v>
       </c>
       <c r="N24">
-        <v>1.010283884976293</v>
+        <v>0.9538421546464511</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1085,28 +1085,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.004860741150578</v>
+        <v>0.9356892935884337</v>
       </c>
       <c r="E25">
-        <v>1.007872076959016</v>
+        <v>0.9510616292313354</v>
       </c>
       <c r="F25">
-        <v>1.002128720824314</v>
+        <v>0.904789688938149</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.010646469523226</v>
+        <v>0.96259327589494</v>
       </c>
       <c r="L25">
-        <v>1.011015042468879</v>
+        <v>0.964470333614837</v>
       </c>
       <c r="M25">
-        <v>1.005290970498298</v>
+        <v>0.9190707937675611</v>
       </c>
       <c r="N25">
-        <v>1.012081703432719</v>
+        <v>0.9639602687577029</v>
       </c>
     </row>
   </sheetData>
